--- a/de12/ニーズ調査.xlsx
+++ b/de12/ニーズ調査.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\81809\mygit\xbp\de12\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AE634DFA-E269-4C4D-A38B-F6AAA7D1C5A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F3833A8-5998-4A1F-9DE6-F6D5BB6778D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{1C09DC60-CD6B-4018-83D4-DC2E51A230E9}"/>
   </bookViews>
